--- a/medicine/Psychotrope/Russian_Kiss/Russian_Kiss.xlsx
+++ b/medicine/Psychotrope/Russian_Kiss/Russian_Kiss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un Russian Kiss (baiser russe, en anglais) est un cocktail à base de vodka, de liqueur de framboise et de jus de cranberry[1].
+Un Russian Kiss (baiser russe, en anglais) est un cocktail à base de vodka, de liqueur de framboise et de jus de cranberry.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cocktail est une variante du French Kiss[2] (au champagne), du Cosmopolitan (avec du cointreau) ou des Black Russian et Russe blanc (à la liqueur de café)... 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cocktail est une variante du French Kiss (au champagne), du Cosmopolitan (avec du cointreau) ou des Black Russian et Russe blanc (à la liqueur de café)... 
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Composition et recette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est composé de :
 1 dose de liqueur de framboise (ou de fraise).
 3 doses de jus de cranberry.
 2 doses de vodka.
-Mélanger les ingrédients au shaker avec des glaçons, puis verser le tout on the rocks dans un verre old fashioned[3],[4]. 
+Mélanger les ingrédients au shaker avec des glaçons, puis verser le tout on the rocks dans un verre old fashioned,. 
 </t>
         </is>
       </c>
